--- a/Bloklar.xlsx
+++ b/Bloklar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Tashqi blok</t>
   </si>
@@ -24,6 +24,30 @@
   <si>
     <t>Ichki Blok</t>
   </si>
+  <si>
+    <t>113EAMAA</t>
+  </si>
+  <si>
+    <t>111DAPAA</t>
+  </si>
+  <si>
+    <t>113EDVAA</t>
+  </si>
+  <si>
+    <t>113EDDAA</t>
+  </si>
+  <si>
+    <t>113ECQAA</t>
+  </si>
+  <si>
+    <t>113EFSAA</t>
+  </si>
+  <si>
+    <t>113EG3AA</t>
+  </si>
+  <si>
+    <t>113EGIAA</t>
+  </si>
 </sst>
 </file>
 
@@ -31,11 +55,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,6 +68,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -51,9 +88,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -67,9 +181,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,104 +205,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,37 +227,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,155 +407,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -402,15 +447,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,8 +469,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,23 +517,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,15 +538,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,135 +556,144 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,13 +1015,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667"/>
@@ -987,33 +1041,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>12345678</v>
-      </c>
-      <c r="B2">
+    <row r="2" ht="15.6" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>87654321</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>11223344</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>44332211</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
+    <row r="3" ht="15.6" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
